--- a/biology/Médecine/Kanamycine_A/Kanamycine_A.xlsx
+++ b/biology/Médecine/Kanamycine_A/Kanamycine_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La kanamycine A, souvent simplement appelée kanamycine, est un antibiotique[1].
+La kanamycine A, souvent simplement appelée kanamycine, est un antibiotique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé  pour traiter les infections bactériennes graves et la tuberculose [1]. Elle n'est pas un traitement de première intention [1], elle est utilisée par voie orale, par injection dans une veine ou par injection dans un muscle [1]. La kanamycine est recommandée pour une utilisation à court terme uniquement, généralement de 7 à 10 jours[1]. Comme la plupart des antibiotiques, il est inefficace dans les infections virales [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé  pour traiter les infections bactériennes graves et la tuberculose . Elle n'est pas un traitement de première intention , elle est utilisée par voie orale, par injection dans une veine ou par injection dans un muscle . La kanamycine est recommandée pour une utilisation à court terme uniquement, généralement de 7 à 10 jours. Comme la plupart des antibiotiques, il est inefficace dans les infections virales .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants sont des troubles de l'audition et de l'équilibre, ainsi que des problèmes rénaux [1]. La kanamycine n'est pas recommandée pendant la grossesse car elle peut panobinostat[1]. Il est probablement sans danger pendant l'allaitement [2]. La kanamycine fait partie de la famille des aminoglycosides [1]. Il agit en bloquant la production de protéines nécessaires à la survie des bactéries [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants sont des troubles de l'audition et de l'équilibre, ainsi que des problèmes rénaux . La kanamycine n'est pas recommandée pendant la grossesse car elle peut panobinostat. Il est probablement sans danger pendant l'allaitement . La kanamycine fait partie de la famille des aminoglycosides . Il agit en bloquant la production de protéines nécessaires à la survie des bactéries .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire et coût</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kanamycine a été isolée pour la première fois en 1957 par Hamao Umezawa à partir de la bactérie Streptomyces kanamyceticus [1],[3]. Il a été retiré de la liste des médicaments essentiels de l'Organisation mondiale de la santé en 2019[4],[5]. Le coût de gros dans le monde en développement est de 0,85 - 1,52 USD par dose en 2014[6]. Il n'est plus commercialisé aux États-Unis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kanamycine a été isolée pour la première fois en 1957 par Hamao Umezawa à partir de la bactérie Streptomyces kanamyceticus ,. Il a été retiré de la liste des médicaments essentiels de l'Organisation mondiale de la santé en 2019,. Le coût de gros dans le monde en développement est de 0,85 - 1,52 USD par dose en 2014. Il n'est plus commercialisé aux États-Unis.
 </t>
         </is>
       </c>
